--- a/CAD/LW bike parts list.xlsx
+++ b/CAD/LW bike parts list.xlsx
@@ -9,7 +9,10 @@
   <sheets>
     <sheet name="PARTS LIST" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PARTS LIST'!$A$1:$L$26</definedName>
+  </definedNames>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="76">
   <si>
     <t>ITEM</t>
   </si>
@@ -57,15 +60,6 @@
     <t>VENDOR</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -225,15 +219,6 @@
     <t/>
   </si>
   <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
     <t>Stainless Steel AISI 304</t>
   </si>
   <si>
@@ -250,78 +235,6 @@
   </si>
   <si>
     <t>Steel, Mild</t>
-  </si>
-  <si>
-    <t>£.23</t>
-  </si>
-  <si>
-    <t>£.66</t>
-  </si>
-  <si>
-    <t>£.65</t>
-  </si>
-  <si>
-    <t>£.62</t>
-  </si>
-  <si>
-    <t>£1.53</t>
-  </si>
-  <si>
-    <t>£10.97</t>
-  </si>
-  <si>
-    <t>£12.18</t>
-  </si>
-  <si>
-    <t>£9.01</t>
-  </si>
-  <si>
-    <t>£15.59</t>
-  </si>
-  <si>
-    <t>£9.59</t>
-  </si>
-  <si>
-    <t>£12.53</t>
-  </si>
-  <si>
-    <t>£.44</t>
-  </si>
-  <si>
-    <t>£1.51</t>
-  </si>
-  <si>
-    <t>£1.32</t>
-  </si>
-  <si>
-    <t>£10.00</t>
-  </si>
-  <si>
-    <t>£2.41</t>
-  </si>
-  <si>
-    <t>£3.00</t>
-  </si>
-  <si>
-    <t>£10.30</t>
-  </si>
-  <si>
-    <t>£18.50</t>
-  </si>
-  <si>
-    <t>£9.56</t>
-  </si>
-  <si>
-    <t>£8.64</t>
-  </si>
-  <si>
-    <t>£1.26</t>
-  </si>
-  <si>
-    <t>£2.83</t>
-  </si>
-  <si>
-    <t>£7.00</t>
   </si>
   <si>
     <t>Accu</t>
@@ -343,7 +256,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="313" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00_);[Red]\(&quot;£&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="314" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -3798,325 +3719,328 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="145" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="151" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="154" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="157" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="158" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="159" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="166" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="167" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="168" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="169" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="170" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="171" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="172" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="173" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="174" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="175" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="176" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="177" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="178" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="179" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="180" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="181" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="182" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="183" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="184" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="185" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="186" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="187" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="188" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="189" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="190" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="191" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="192" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="193" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="194" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="195" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="196" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="197" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="198" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="199" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="200" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="201" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="202" fillId="0" borderId="202" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="203" fillId="0" borderId="203" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="204" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="205" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="206" fillId="0" borderId="206" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="207" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="208" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="209" fillId="0" borderId="209" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="210" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="211" fillId="0" borderId="211" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="212" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="213" fillId="0" borderId="213" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="214" fillId="0" borderId="214" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="215" fillId="0" borderId="215" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="216" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="217" fillId="0" borderId="217" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="218" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="219" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="220" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="221" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="222" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="223" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="224" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="225" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="226" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="227" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="228" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="229" fillId="0" borderId="229" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="230" fillId="0" borderId="230" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="231" fillId="0" borderId="231" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="232" fillId="0" borderId="232" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="233" fillId="0" borderId="233" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="234" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="235" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="236" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="237" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="238" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="239" fillId="0" borderId="239" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="240" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="241" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="242" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="243" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="244" fillId="0" borderId="244" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="245" fillId="0" borderId="245" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="246" fillId="0" borderId="246" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="247" fillId="0" borderId="247" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="248" fillId="0" borderId="248" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="249" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="250" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="251" fillId="0" borderId="251" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="252" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="253" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="254" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="255" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="256" fillId="0" borderId="256" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="257" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="258" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="259" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="260" fillId="0" borderId="260" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="261" fillId="0" borderId="261" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="262" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="263" fillId="0" borderId="263" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="264" fillId="0" borderId="264" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="265" fillId="0" borderId="265" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="266" fillId="0" borderId="266" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="267" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="268" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="269" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="270" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="271" fillId="0" borderId="271" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="272" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="273" fillId="0" borderId="273" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="274" fillId="0" borderId="274" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="275" fillId="0" borderId="275" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="276" fillId="0" borderId="276" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="277" fillId="0" borderId="277" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="278" fillId="0" borderId="278" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="279" fillId="0" borderId="279" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="280" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="281" fillId="0" borderId="281" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="282" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="283" fillId="0" borderId="283" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="284" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="285" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="286" fillId="0" borderId="286" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="287" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="288" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="289" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="290" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="291" fillId="0" borderId="291" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="292" fillId="0" borderId="292" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="293" fillId="0" borderId="293" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="294" fillId="0" borderId="294" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="295" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="296" fillId="0" borderId="296" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="297" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="298" fillId="0" borderId="298" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="299" fillId="0" borderId="299" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="300" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="301" fillId="0" borderId="301" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="302" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="303" fillId="0" borderId="303" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="304" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="305" fillId="0" borderId="305" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="306" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="307" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="308" fillId="0" borderId="308" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="309" fillId="0" borderId="309" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="310" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="311" fillId="0" borderId="311" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="312" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="175" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="200" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="225" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="250" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="300" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="188" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="213" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="238" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="288" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="157" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="158" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="151" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="159" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="145" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="154" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="174" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="166" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="182" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="167" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="183" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="176" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="168" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="184" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="177" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="169" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="185" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="178" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="170" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="186" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="179" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="171" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="187" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="180" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="172" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="181" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="173" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="189" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="199" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="191" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="207" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="192" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="208" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="201" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="193" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="209" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="202" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="194" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="210" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="203" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="195" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="211" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="204" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="196" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="212" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="205" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="197" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="190" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="206" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="198" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="214" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="224" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="216" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="232" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="217" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="233" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="226" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="218" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="234" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="227" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="219" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="235" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="228" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="220" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="236" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="229" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="221" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="237" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="230" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="222" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="215" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="231" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="223" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="239" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="249" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="241" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="257" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="242" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="258" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="251" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="243" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="259" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="252" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="244" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="260" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="253" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="245" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="261" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="254" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="246" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="262" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="255" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="247" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="240" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="256" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="248" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="289" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="299" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="291" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="307" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="292" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="308" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="301" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="293" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="309" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="302" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="294" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="310" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="303" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="295" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="311" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="304" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="296" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="312" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="305" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="297" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="290" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="306" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="298" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="288" fillId="0" borderId="263" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="287" fillId="0" borderId="264" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="286" fillId="0" borderId="265" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="285" fillId="0" borderId="266" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="284" fillId="0" borderId="267" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="283" fillId="0" borderId="268" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="282" fillId="0" borderId="269" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="281" fillId="0" borderId="270" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="280" fillId="0" borderId="271" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="279" fillId="0" borderId="272" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="278" fillId="0" borderId="273" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="277" fillId="0" borderId="274" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="276" fillId="0" borderId="275" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="275" fillId="0" borderId="276" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="274" fillId="0" borderId="277" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="273" fillId="0" borderId="278" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="272" fillId="0" borderId="279" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="271" fillId="0" borderId="280" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="270" fillId="0" borderId="281" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="269" fillId="0" borderId="282" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="268" fillId="0" borderId="283" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="267" fillId="0" borderId="284" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="266" fillId="0" borderId="285" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="265" fillId="0" borderId="286" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="264" fillId="0" borderId="287" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4446,9 +4370,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
@@ -4491,956 +4417,971 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="13">
-        <v>25</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="113">
-        <v>18</v>
-      </c>
-      <c r="F2" s="138" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="163" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="188" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="213" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="238">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K2" s="263" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" s="288" t="s">
-        <v>101</v>
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="29">
+        <v>6</v>
+      </c>
+      <c r="G2" s="30">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H2" s="31">
+        <v>440</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="33">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="K2" s="288">
+        <v>2.41</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="14">
-        <v>24</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="114">
+      <c r="A3" s="35">
         <v>2</v>
       </c>
-      <c r="F3" s="139" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="164" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="189" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="214" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="239">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="K3" s="264" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="289" t="s">
-        <v>101</v>
+      <c r="B3" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="127">
+        <v>1</v>
+      </c>
+      <c r="F3" s="150">
+        <v>6</v>
+      </c>
+      <c r="G3" s="173">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H3" s="196">
+        <v>532</v>
+      </c>
+      <c r="I3" s="219" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="242">
+        <v>0.44</v>
+      </c>
+      <c r="K3" s="289">
+        <v>2.92</v>
+      </c>
+      <c r="L3" s="265" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="15">
-        <v>23</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="115">
-        <v>4</v>
-      </c>
-      <c r="F4" s="140" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="165" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="190" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="215" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="240">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="K4" s="265" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="290" t="s">
-        <v>101</v>
+      <c r="A4" s="55">
+        <v>3</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="147">
+        <v>1</v>
+      </c>
+      <c r="F4" s="170">
+        <v>6</v>
+      </c>
+      <c r="G4" s="193">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H4" s="216">
+        <v>304</v>
+      </c>
+      <c r="I4" s="239" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="262">
+        <v>0.252</v>
+      </c>
+      <c r="K4" s="290">
+        <v>1.67</v>
+      </c>
+      <c r="L4" s="285" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="16">
-        <v>22</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="91" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="116">
+      <c r="A5" s="37">
+        <v>4</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="129">
+        <v>1</v>
+      </c>
+      <c r="F5" s="152">
         <v>6</v>
       </c>
-      <c r="F5" s="141" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="166" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="191" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="216" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="241">
-        <v>1.9E-2</v>
-      </c>
-      <c r="K5" s="266" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="291" t="s">
-        <v>101</v>
+      <c r="G5" s="175">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H5" s="198">
+        <v>230</v>
+      </c>
+      <c r="I5" s="221" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="244">
+        <v>0.19</v>
+      </c>
+      <c r="K5" s="291">
+        <v>1.26</v>
+      </c>
+      <c r="L5" s="267" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="17">
-        <v>21</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="117">
-        <v>1</v>
-      </c>
-      <c r="F6" s="142" t="s">
+      <c r="A6" s="39">
+        <v>5</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="167">
+      <c r="D6" s="108" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="131">
+        <v>2</v>
+      </c>
+      <c r="F6" s="154">
+        <v>6</v>
+      </c>
+      <c r="G6" s="177">
         <v>33.700000000000003</v>
       </c>
-      <c r="H6" s="192">
-        <v>280</v>
-      </c>
-      <c r="I6" s="217" t="s">
+      <c r="H6" s="200">
+        <v>260</v>
+      </c>
+      <c r="I6" s="223" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="246">
+        <v>0.215</v>
+      </c>
+      <c r="K6" s="292">
+        <v>1.42</v>
+      </c>
+      <c r="L6" s="269" t="s">
         <v>72</v>
-      </c>
-      <c r="J6" s="242">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="K6" s="267" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" s="292" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="18">
-        <v>20</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="118">
-        <v>2</v>
-      </c>
-      <c r="F7" s="143" t="s">
+      <c r="A7" s="42">
+        <v>6</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="168" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="193" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="218" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="243">
-        <v>0.12</v>
-      </c>
-      <c r="K7" s="268" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="293" t="s">
-        <v>103</v>
+      <c r="D7" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="134">
+        <v>1</v>
+      </c>
+      <c r="F7" s="157">
+        <v>6</v>
+      </c>
+      <c r="G7" s="180">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H7" s="203">
+        <v>240</v>
+      </c>
+      <c r="I7" s="226" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="249">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="K7" s="293">
+        <v>1.32</v>
+      </c>
+      <c r="L7" s="272" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="19">
-        <v>19</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="119">
-        <v>1</v>
-      </c>
-      <c r="F8" s="144" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="169" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="194" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="219" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="244">
-        <v>0.16</v>
-      </c>
-      <c r="K8" s="269" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="294" t="s">
-        <v>103</v>
+      <c r="A8" s="45">
+        <v>7</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="137">
+        <v>2</v>
+      </c>
+      <c r="F8" s="160">
+        <v>6</v>
+      </c>
+      <c r="G8" s="183">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H8" s="206">
+        <v>289</v>
+      </c>
+      <c r="I8" s="229" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="252">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="K8" s="294">
+        <v>1.58</v>
+      </c>
+      <c r="L8" s="275" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="20">
-        <v>18</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="120">
-        <v>3</v>
-      </c>
-      <c r="F9" s="145" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="170" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="195" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="220" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="245">
-        <v>0.51</v>
-      </c>
-      <c r="K9" s="270" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="295" t="s">
-        <v>103</v>
+      <c r="A9" s="48">
+        <v>8</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="140">
+        <v>2</v>
+      </c>
+      <c r="F9" s="163">
+        <v>6</v>
+      </c>
+      <c r="G9" s="186">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H9" s="209">
+        <v>80</v>
+      </c>
+      <c r="I9" s="232" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="255">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K9" s="295">
+        <v>0.44</v>
+      </c>
+      <c r="L9" s="278" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="21">
-        <v>17</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="121">
+      <c r="A10" s="51">
+        <v>9</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="143">
         <v>1</v>
       </c>
-      <c r="F10" s="146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="171" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="196" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="221" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="246">
-        <v>0.16</v>
-      </c>
-      <c r="K10" s="271" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" s="296" t="s">
-        <v>103</v>
+      <c r="F10" s="166">
+        <v>6</v>
+      </c>
+      <c r="G10" s="189">
+        <v>32.4</v>
+      </c>
+      <c r="H10" s="212">
+        <v>115</v>
+      </c>
+      <c r="I10" s="235" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="258">
+        <v>0.188</v>
+      </c>
+      <c r="K10" s="296">
+        <v>10</v>
+      </c>
+      <c r="L10" s="281" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="22">
-        <v>16</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="72" t="s">
+      <c r="A11" s="54">
+        <v>10</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="123" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="146">
+        <v>1</v>
+      </c>
+      <c r="F11" s="169">
+        <v>7</v>
+      </c>
+      <c r="G11" s="192">
         <v>42</v>
       </c>
-      <c r="D11" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="122">
-        <v>1</v>
-      </c>
-      <c r="F11" s="147" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="172" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="197" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="222" t="s">
+      <c r="H11" s="215">
+        <v>73</v>
+      </c>
+      <c r="I11" s="238" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="261">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="K11" s="297">
+        <v>7</v>
+      </c>
+      <c r="L11" s="284" t="s">
         <v>74</v>
-      </c>
-      <c r="J11" s="247">
-        <v>0.44</v>
-      </c>
-      <c r="K11" s="272" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" s="297" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="23">
-        <v>15</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="123">
-        <v>1</v>
-      </c>
-      <c r="F12" s="148" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="173" t="s">
+      <c r="A12" s="57">
+        <v>11</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="149">
+        <v>5</v>
+      </c>
+      <c r="F12" s="172">
+        <v>6</v>
+      </c>
+      <c r="G12" s="195" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="218" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="241" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="198" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="223" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="248">
-        <v>0.43</v>
-      </c>
-      <c r="K12" s="273" t="s">
-        <v>87</v>
-      </c>
-      <c r="L12" s="298" t="s">
-        <v>103</v>
+      <c r="J12" s="264">
+        <v>0.13</v>
+      </c>
+      <c r="K12" s="298">
+        <v>9.56</v>
+      </c>
+      <c r="L12" s="287" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="24">
-        <v>14</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="99" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="124">
-        <v>2</v>
-      </c>
-      <c r="F13" s="149" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="174">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="H13" s="199">
-        <v>80</v>
-      </c>
-      <c r="I13" s="224" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="249">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="K13" s="274" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" s="299" t="s">
-        <v>102</v>
+      <c r="A13" s="36">
+        <v>12</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="128">
+        <v>1</v>
+      </c>
+      <c r="F13" s="151">
+        <v>6.5</v>
+      </c>
+      <c r="G13" s="174" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="197" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="220" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="243">
+        <v>0.43</v>
+      </c>
+      <c r="K13" s="299">
+        <v>12.53</v>
+      </c>
+      <c r="L13" s="266" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="25">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="125">
-        <v>2</v>
-      </c>
-      <c r="F14" s="150" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="175">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="H14" s="200">
-        <v>275</v>
-      </c>
-      <c r="I14" s="225" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="250">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="K14" s="275" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="300" t="s">
-        <v>102</v>
+      <c r="B14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18">
+        <v>6</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="22">
+        <v>0.16</v>
+      </c>
+      <c r="K14" s="300">
+        <v>12.18</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="26">
-        <v>12</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="126">
+      <c r="A15" s="41">
+        <v>14</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="133">
         <v>1</v>
       </c>
-      <c r="F15" s="151" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="176">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="H15" s="201">
-        <v>240</v>
-      </c>
-      <c r="I15" s="226" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="251">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="K15" s="276" t="s">
-        <v>90</v>
-      </c>
-      <c r="L15" s="301" t="s">
-        <v>102</v>
+      <c r="F15" s="156">
+        <v>6</v>
+      </c>
+      <c r="G15" s="179" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="202" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="225" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="248">
+        <v>0.44</v>
+      </c>
+      <c r="K15" s="301">
+        <v>9.59</v>
+      </c>
+      <c r="L15" s="271" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="27">
-        <v>11</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="127">
-        <v>1</v>
-      </c>
-      <c r="F16" s="152" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="177">
-        <v>32.4</v>
-      </c>
-      <c r="H16" s="202">
-        <v>150</v>
-      </c>
-      <c r="I16" s="227" t="s">
-        <v>75</v>
-      </c>
-      <c r="J16" s="252">
-        <v>0.246</v>
-      </c>
-      <c r="K16" s="277" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="302" t="s">
-        <v>104</v>
+      <c r="A16" s="44">
+        <v>15</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="113" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="136">
+        <v>5</v>
+      </c>
+      <c r="F16" s="159">
+        <v>6</v>
+      </c>
+      <c r="G16" s="182" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="205" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="228" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="251">
+        <v>0.17</v>
+      </c>
+      <c r="K16" s="302">
+        <v>8.64</v>
+      </c>
+      <c r="L16" s="274" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="28">
-        <v>10</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="103" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="128">
-        <v>1</v>
-      </c>
-      <c r="F17" s="153" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="178">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="H17" s="203">
-        <v>440</v>
-      </c>
-      <c r="I17" s="228" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="253">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="K17" s="278" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" s="303" t="s">
-        <v>102</v>
+      <c r="A17" s="47">
+        <v>16</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="116" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="139">
+        <v>2</v>
+      </c>
+      <c r="F17" s="162">
+        <v>6</v>
+      </c>
+      <c r="G17" s="185" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="208" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="231" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="254">
+        <v>0.12</v>
+      </c>
+      <c r="K17" s="303">
+        <v>10.97</v>
+      </c>
+      <c r="L17" s="277" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="29">
-        <v>9</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="104" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="129">
-        <v>4</v>
-      </c>
-      <c r="F18" s="154" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="179" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="204" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="229" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" s="254">
-        <v>1.6E-2</v>
-      </c>
-      <c r="K18" s="279" t="s">
-        <v>93</v>
-      </c>
-      <c r="L18" s="304" t="s">
-        <v>105</v>
+      <c r="A18" s="50">
+        <v>17</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="119" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="142">
+        <v>1</v>
+      </c>
+      <c r="F18" s="165">
+        <v>5</v>
+      </c>
+      <c r="G18" s="188" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="211" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="234" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="257">
+        <v>0.33</v>
+      </c>
+      <c r="K18" s="304">
+        <v>10.3</v>
+      </c>
+      <c r="L18" s="280" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="30">
-        <v>8</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="130">
+      <c r="A19" s="53">
+        <v>18</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="122" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="145">
         <v>1</v>
       </c>
-      <c r="F19" s="155" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="180" t="s">
+      <c r="F19" s="168">
+        <v>6</v>
+      </c>
+      <c r="G19" s="191" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="214" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="237" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="205" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="230" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="255">
-        <v>0.33</v>
-      </c>
-      <c r="K19" s="280" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="305" t="s">
-        <v>103</v>
+      <c r="J19" s="260">
+        <v>0.16</v>
+      </c>
+      <c r="K19" s="305">
+        <v>15.59</v>
+      </c>
+      <c r="L19" s="283" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="31">
-        <v>7</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="106" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="131">
-        <v>1</v>
-      </c>
-      <c r="F20" s="156" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="181" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="206" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="231" t="s">
+      <c r="A20" s="56">
+        <v>19</v>
+      </c>
+      <c r="B20" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="148">
+        <v>3</v>
+      </c>
+      <c r="F20" s="171">
+        <v>6</v>
+      </c>
+      <c r="G20" s="194" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="217" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="240" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="263">
+        <v>0.51</v>
+      </c>
+      <c r="K20" s="306">
+        <v>9.01</v>
+      </c>
+      <c r="L20" s="286" t="s">
         <v>73</v>
-      </c>
-      <c r="J20" s="256">
-        <v>0.18</v>
-      </c>
-      <c r="K20" s="281" t="s">
-        <v>95</v>
-      </c>
-      <c r="L20" s="306" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="32">
+      <c r="A21" s="38">
+        <v>20</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="130">
+        <v>1</v>
+      </c>
+      <c r="F21" s="153">
         <v>6</v>
       </c>
-      <c r="B21" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="132">
-        <v>1</v>
-      </c>
-      <c r="F21" s="157" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="182">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="H21" s="207" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="232" t="s">
-        <v>72</v>
-      </c>
-      <c r="J21" s="257">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="K21" s="282" t="s">
-        <v>90</v>
-      </c>
-      <c r="L21" s="307" t="s">
-        <v>102</v>
+      <c r="G21" s="176" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="199" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="222" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="245">
+        <v>0.18</v>
+      </c>
+      <c r="K21" s="307">
+        <v>18.5</v>
+      </c>
+      <c r="L21" s="268" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="33">
-        <v>5</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="133">
-        <v>5</v>
-      </c>
-      <c r="F22" s="158" t="s">
+      <c r="A22" s="40">
+        <v>21</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="183" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="208" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="233" t="s">
-        <v>73</v>
-      </c>
-      <c r="J22" s="258">
-        <v>0.13</v>
-      </c>
-      <c r="K22" s="283" t="s">
-        <v>96</v>
-      </c>
-      <c r="L22" s="308" t="s">
-        <v>103</v>
+      <c r="D22" s="109" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="132">
+        <v>4</v>
+      </c>
+      <c r="F22" s="155" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="178" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="201" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="224" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="247">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K22" s="308">
+        <v>3</v>
+      </c>
+      <c r="L22" s="270" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="34">
-        <v>4</v>
-      </c>
-      <c r="B23" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="134">
-        <v>5</v>
-      </c>
-      <c r="F23" s="159" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="209" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="234" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23" s="259">
-        <v>0.17</v>
-      </c>
-      <c r="K23" s="284" t="s">
-        <v>97</v>
-      </c>
-      <c r="L23" s="309" t="s">
-        <v>103</v>
+      <c r="A23" s="43">
+        <v>22</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="112" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="135">
+        <v>2</v>
+      </c>
+      <c r="F23" s="158" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="181" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="204" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="227" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="250">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="K23" s="309">
+        <v>0.66</v>
+      </c>
+      <c r="L23" s="273" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="35">
-        <v>3</v>
-      </c>
-      <c r="B24" s="60" t="s">
+      <c r="A24" s="46">
+        <v>23</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="110" t="s">
+      <c r="D24" s="115" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="138">
+        <v>4</v>
+      </c>
+      <c r="F24" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="135">
-        <v>2</v>
-      </c>
-      <c r="F24" s="160" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="185">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="H24" s="210" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" s="235" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" s="260">
-        <v>0.19</v>
-      </c>
-      <c r="K24" s="285" t="s">
-        <v>98</v>
-      </c>
-      <c r="L24" s="310" t="s">
-        <v>102</v>
+      <c r="G24" s="184" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="207" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="230" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="253">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K24" s="310">
+        <v>0.65</v>
+      </c>
+      <c r="L24" s="276" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="36">
-        <v>2</v>
-      </c>
-      <c r="B25" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="111" t="s">
+      <c r="A25" s="49">
+        <v>24</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="118" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="141">
+        <v>6</v>
+      </c>
+      <c r="F25" s="164" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="187" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="210" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="233" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="136">
-        <v>1</v>
-      </c>
-      <c r="F25" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="186">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="H25" s="211">
-        <v>516</v>
-      </c>
-      <c r="I25" s="236" t="s">
-        <v>72</v>
-      </c>
-      <c r="J25" s="261">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="K25" s="286" t="s">
-        <v>99</v>
-      </c>
-      <c r="L25" s="311" t="s">
-        <v>102</v>
+      <c r="J25" s="256">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K25" s="311">
+        <v>0.62</v>
+      </c>
+      <c r="L25" s="279" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="37">
-        <v>1</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="137">
-        <v>1</v>
-      </c>
-      <c r="F26" s="162" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="187">
-        <v>42</v>
-      </c>
-      <c r="H26" s="212">
-        <v>73</v>
-      </c>
-      <c r="I26" s="237" t="s">
-        <v>76</v>
-      </c>
-      <c r="J26" s="262">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="K26" s="287" t="s">
-        <v>100</v>
-      </c>
-      <c r="L26" s="312" t="s">
-        <v>104</v>
+      <c r="A26" s="52">
+        <v>25</v>
+      </c>
+      <c r="B26" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="121" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="144">
+        <v>18</v>
+      </c>
+      <c r="F26" s="167" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="190" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="213" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="236" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="259">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K26" s="312">
+        <v>0.23</v>
+      </c>
+      <c r="L26" s="282" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="J27">
+        <f>SUMPRODUCT(J2:J26,$E2:$E26)</f>
+        <v>8.3580000000000005</v>
+      </c>
+      <c r="K27" s="313">
+        <f>SUMPRODUCT(K2:K26,$E2:$E26)</f>
+        <v>275.90000000000003</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L26">
+    <sortState ref="A2:L26">
+      <sortCondition ref="A1:A26"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/CAD/LW bike parts list.xlsx
+++ b/CAD/LW bike parts list.xlsx
@@ -260,1261 +260,1273 @@
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00_);[Red]\(&quot;£&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="314" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
+  <fonts count="316" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -3719,9 +3731,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4039,8 +4053,10 @@
     <xf numFmtId="8" fontId="264" fillId="0" borderId="287" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4373,7 +4389,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5383,6 +5399,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
